--- a/Improgress/2. Artifact and Deliverable/Test case/QuanLyCtyBDS_DefectLoModule1_ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/QuanLyCtyBDS_DefectLoModule1_ver1.0.xlsx
@@ -8,16 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C9A3CC-E32B-4E51-8F4C-9D8E629EAC21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3829B1A-A7EB-460A-AF8E-2351ADD00E98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
     <sheet name="Defect Log" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhGu+8bvOxyDIsdOCI/pdg1gJiOlA=="/>
     </ext>
@@ -26,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="113">
   <si>
     <t>DEFECT LOG</t>
   </si>
@@ -214,9 +222,6 @@
     <t>#29</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Chức năng " Đăng nhập " khi người dùng để trống trường thông tin tài khoản hệ thống tự động out mà không hiển thị thông báo </t>
   </si>
   <si>
@@ -365,6 +370,183 @@
 Step5 :Quan sát thông tin hệ thống hiển thị 
 </t>
   </si>
+  <si>
+    <t>Step1 : Admin đăng nhập vào WebAdmin bất Động sản bằng tài khoản admin
+Step2:Ở trang chủ , nhấn chọn " quản lý tài khoản "
+Step3 :Nhấn nút " Thêm tài khoản " 
+Step4 :Nhập thông tin tài khoản  
+Step5 :Nhấn nút " chọn tệp " 
+Step6 :chọn tệp tin hình ảnh hiển thị  
+Step7 :chọn tệp tin hình ảnh hiển thị 
+Step8 :Nhấn nút " open" trên browser
+Step9 :Nhấn "thêm"</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giao diện " Xem thông tin tài khoản " hệ thống hiển thị thiếu cột Mã nhân viên </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step1 : Admin đăng nhập vào WebAdmin bất Động sản bằng tài khoản admin
+Step2:Ở trang chủ , nhấn chọn " quản lý tài khoản "
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giao diện " Xem thông tin tài khoản " hệ thống thiếu cột Mã nhân viên nên không hiện thị danh sách nhân viên không được sắp xếp A- Z của Mã nhân viên </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chức năng " Thêm tài khoản " trong giao diện thêm tài khoản chưa hiễn thị trường thông tin : mã nhân viên , nhóm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step1 : Admin đăng nhập vào WebAdmin bất Động sản bằng tài khoản admin
+Step2:Ở trang chủ , nhấn chọn " quản lý tài khoản "
+Step3 :Nhấn nút " Thêm tài khoản " </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chức năng ' thêm tài khoản "Admin để trống trường thông tin nhưng hệ thống vẫn hiện thông báo " thêm thành công </t>
+  </si>
+  <si>
+    <t>21/5/2020</t>
+  </si>
+  <si>
+    <t>Chức năng ' thêm tài khoản " sau khi thêm tài khoản mới vẫn chưa hiễn thị đủ các trường thông tin (MNV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chức năng ' thêm tài khoản " người dùng thêm Email đã tồn tại nhưng hệ thống không hiển thị thông báo </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step1 : Admin đăng nhập vào WebAdmin bất Động sản bằng tài khoản admin
+Step2:Ở trang chủ , nhấn chọn " quản lý tài khoản "
+Step3 :Nhấn nút " Thêm tài khoản " 
+Step4 :Nhập thông tin tài khoản  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>( Email đã tồn tại )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Step5 :Nhấn nút " chọn tệp " 
+Step6 :chọn tệp tin hình ảnh hiển thị  
+Step7 :chọn tệp tin hình ảnh hiển thị 
+Step8 :Nhấn nút " open" trên browser
+Step9 :Nhấn "thêm"</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Chức năng ' thêm tài khoản " ở trường thông tin sdt người dùng nhập kí tự đầu tiên là số nhưng các kí tự sau là chữ nhưng hệ thống không báo lỗi  </t>
+  </si>
+  <si>
+    <t>22/5/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chức năng ' thêm tài khoản " không thể tải ảnh đại diện của nhân viên </t>
+  </si>
+  <si>
+    <t>Step1 : Admin đăng nhập vào WebAdmin bất Động sản bằng tài khoản admin
+Step2:Ở trang chủ , nhấn chọn " quản lý tài khoản "
+Step3 :Nhấn nút " Thêm tài khoản " 
+Step4 :Nhập thông tin tài khoản  (để trống )
+Step5 :Nhấn nút " chọn tệp " 
+Step6 :chọn tệp tin hình ảnh hiển thị  
+Step7 :Nhấn nút " open" trên browser
+Step8 :Nhấn "thêm"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step1 : Admin đăng nhập vào WebAdmin bất Động sản bằng tài khoản admin
+Step2:Ở trang chủ , nhấn chọn " quản lý tài khoản "
+Step3 :Nhấn nút " Thêm tài khoản " 
+Step4 :Nhập thông tin tài khoản  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">( trường thông tin SDT vd:6sssssss) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Step5 :Nhấn nút " chọn tệp " 
+Step6 :chọn tệp tin hình ảnh hiển thị  
+Step7 :Nhấn nút " open" trên browser
+Step8 :Nhấn "thêm"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step1 : Admin đăng nhập vào WebAdmin bất Động sản bằng tài khoản admin
+Step2:Ở trang chủ , nhấn chọn " quản lý tài khoản "
+Step3 :Nhấn nút " Thêm tài khoản " 
+Step4 :Nhập thông tin tài khoản  
+Step5 :Nhấn nút " chọn tệp " 
+Step6 :chọn tệp tin hình ảnh hiển thị  
+Step7 :Nhấn nút " open" trên browser </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>( hình ảnh không tải lên )</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Step8 :Nhấn "thêm"</t>
+    </r>
+  </si>
+  <si>
+    <t>25/05/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chức năng " thêm tài khoản " sau khi thêm tài khoản thì vẫn chưa hiển thị được tên phòng và nhóm </t>
+  </si>
+  <si>
+    <t>Step1 : Admin đăng nhập vào WebAdmin bất Động sản bằng tài khoản admin
+Step2:Ở trang chủ , nhấn chọn " quản lý tài khoản "
+Step3 :Nhấn nút " Thêm tài khoản " 
+Step4 :Nhập thông tin tài khoản  
+Step5 :Nhấn nút " chọn tệp " 
+Step6 :chọn tệp tin hình ảnh hiển thị  
+Step7 :Nhấn nút " open" trên browser
+Step8 :Nhấn "thêm"</t>
+  </si>
 </sst>
 </file>
 
@@ -374,7 +556,7 @@
     <numFmt numFmtId="164" formatCode="d&quot;-&quot;m&quot;-&quot;yy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -467,6 +649,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -29284,11 +29472,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z964"/>
+  <dimension ref="A1:Z967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29417,14 +29605,14 @@
         <v>14</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="28">
         <v>43985</v>
@@ -29433,10 +29621,10 @@
         <v>59</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K4" s="28">
         <v>43866</v>
@@ -29448,16 +29636,18 @@
     </row>
     <row r="5" spans="1:26" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="C5" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9">
         <v>1</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" s="28">
         <v>43985</v>
@@ -29466,31 +29656,35 @@
         <v>59</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="28">
+        <v>43867</v>
+      </c>
       <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
+      <c r="M5" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="28">
         <v>43985</v>
@@ -29499,10 +29693,10 @@
         <v>59</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K6" s="28">
         <v>43866</v>
@@ -29515,17 +29709,17 @@
     <row r="7" spans="1:26" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9">
         <v>1</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G7" s="28">
         <v>43985</v>
@@ -29537,12 +29731,12 @@
         <v>60</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29550,17 +29744,17 @@
         <v>3</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="28">
         <v>43985</v>
@@ -29569,17 +29763,17 @@
         <v>59</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K8" s="28">
         <v>43866</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -29587,17 +29781,17 @@
         <v>4</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9">
         <v>1</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9" s="28">
         <v>43985</v>
@@ -29609,28 +29803,30 @@
         <v>60</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
+      <c r="M9" s="9" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>5</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
         <v>1</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="28">
         <v>43985</v>
@@ -29642,28 +29838,30 @@
         <v>60</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
+      <c r="M10" s="9" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>6</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
         <v>1</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G11" s="28">
         <v>43985</v>
@@ -29672,308 +29870,422 @@
         <v>59</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>77</v>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9" t="s">
+        <v>16</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:26" ht="106.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>7</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
         <v>2</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
-      <c r="G12" s="28">
-        <v>43985</v>
+      <c r="G12" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>59</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K12" s="28">
         <v>43866</v>
       </c>
       <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
+      <c r="M12" s="9" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>8</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9">
         <v>2</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
-      <c r="G13" s="28">
-        <v>43985</v>
+      <c r="G13" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>59</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K13" s="28">
         <v>43866</v>
       </c>
       <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
+      <c r="M13" s="9" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>9</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
         <v>2</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
-      <c r="G14" s="28">
-        <v>44140</v>
+      <c r="G14" s="28" t="s">
+        <v>76</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>59</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="J14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="28">
+        <v>43866</v>
+      </c>
       <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="M14" s="9" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>10</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
-      <c r="C15" s="9"/>
+      <c r="C15" s="9" t="s">
+        <v>94</v>
+      </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
+      <c r="F15" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="28">
+        <v>44140</v>
+      </c>
       <c r="H15" s="9" t="s">
         <v>59</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J15" s="9"/>
+      <c r="J15" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-    </row>
-    <row r="16" spans="1:26" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
-        <v>11</v>
+      <c r="M15" s="9" t="s">
+        <v>16</v>
       </c>
+    </row>
+    <row r="16" spans="1:26" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
       <c r="B16" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
-      <c r="C16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
+      <c r="F16" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="28">
+        <v>44140</v>
+      </c>
       <c r="H16" s="9" t="s">
         <v>59</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J16" s="9"/>
+      <c r="J16" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="1:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <v>12</v>
+      <c r="M16" s="9" t="s">
+        <v>92</v>
       </c>
+    </row>
+    <row r="17" spans="1:13" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
       <c r="B17" s="15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
+      <c r="F17" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="28">
+        <v>44140</v>
+      </c>
       <c r="H17" s="9" t="s">
         <v>59</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="J17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="1:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7">
-        <v>13</v>
+      <c r="M17" s="9" t="s">
+        <v>92</v>
       </c>
+    </row>
+    <row r="18" spans="1:13" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="9" t="s">
+        <v>99</v>
+      </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
+      <c r="F18" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="28">
+        <v>44140</v>
+      </c>
       <c r="H18" s="9" t="s">
         <v>59</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="J18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>100</v>
+      </c>
       <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-    </row>
-    <row r="19" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M18" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="111.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="9" t="s">
+        <v>101</v>
+      </c>
       <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="E19" s="9">
+        <v>3</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="28">
+        <v>44140</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-    </row>
-    <row r="20" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
-        <v>15</v>
+      <c r="M19" s="9" t="s">
+        <v>91</v>
       </c>
+    </row>
+    <row r="20" spans="1:13" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
       <c r="B20" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="E20" s="9">
+        <v>4</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>110</v>
+      </c>
       <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-    </row>
-    <row r="21" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7">
+      <c r="M20" s="9" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="21" spans="1:13" ht="79.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
       <c r="B21" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-    </row>
-    <row r="22" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7">
-        <v>17</v>
-      </c>
-      <c r="B22" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-    </row>
-    <row r="23" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7">
-        <v>18</v>
+      <c r="C21" s="9" t="s">
+        <v>104</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9">
+        <v>4</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C22" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9">
+        <v>4</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="9" t="s">
+        <v>111</v>
+      </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="F23" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>110</v>
+      </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -29981,18 +30293,14 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
-        <v>19</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>39</v>
-      </c>
+    <row r="24" spans="1:13" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -30000,18 +30308,14 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7">
-        <v>20</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>40</v>
-      </c>
+    <row r="25" spans="1:13" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -30021,10 +30325,10 @@
     </row>
     <row r="26" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -30040,10 +30344,10 @@
     </row>
     <row r="27" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -30059,10 +30363,10 @@
     </row>
     <row r="28" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -30078,10 +30382,10 @@
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -30097,10 +30401,10 @@
     </row>
     <row r="30" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -30116,10 +30420,10 @@
     </row>
     <row r="31" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -30135,10 +30439,10 @@
     </row>
     <row r="32" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -30154,10 +30458,10 @@
     </row>
     <row r="33" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -30173,10 +30477,10 @@
     </row>
     <row r="34" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -30192,10 +30496,10 @@
     </row>
     <row r="35" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
-        <v>30</v>
+        <v>27</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>52</v>
+      <c r="B35" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -30209,50 +30513,62 @@
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
     </row>
-    <row r="36" spans="1:13" ht="378.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
+    <row r="36" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>28</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-    </row>
-    <row r="37" spans="1:13" ht="378.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+    </row>
+    <row r="37" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>29</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>51</v>
+      </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-    </row>
-    <row r="38" spans="1:13" ht="378.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+    </row>
+    <row r="38" spans="1:13" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>30</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
     </row>
     <row r="39" spans="1:13" ht="378.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
@@ -30263,9 +30579,9 @@
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
       <c r="H39" s="7"/>
-      <c r="I39" s="15"/>
+      <c r="I39" s="7"/>
       <c r="J39" s="7"/>
-      <c r="K39" s="16"/>
+      <c r="K39" s="13"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
     </row>
@@ -30299,52 +30615,52 @@
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
     </row>
-    <row r="42" spans="1:13" ht="274.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="20"/>
+    <row r="42" spans="1:13" ht="378.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="7"/>
       <c r="K42" s="16"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-    </row>
-    <row r="43" spans="1:13" ht="409.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="20"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+    </row>
+    <row r="43" spans="1:13" ht="378.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="7"/>
       <c r="K43" s="16"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-    </row>
-    <row r="44" spans="1:13" ht="409.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="20"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+    </row>
+    <row r="44" spans="1:13" ht="378.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="7"/>
       <c r="K44" s="16"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-    </row>
-    <row r="45" spans="1:13" ht="409.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+    </row>
+    <row r="45" spans="1:13" ht="274.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -30383,13 +30699,13 @@
       <c r="F47" s="21"/>
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
+      <c r="I47" s="22"/>
       <c r="J47" s="20"/>
-      <c r="K47" s="23"/>
+      <c r="K47" s="16"/>
       <c r="L47" s="20"/>
       <c r="M47" s="20"/>
     </row>
-    <row r="48" spans="1:13" ht="372" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="409.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -30428,13 +30744,13 @@
       <c r="F50" s="21"/>
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
-      <c r="I50" s="22"/>
+      <c r="I50" s="20"/>
       <c r="J50" s="20"/>
-      <c r="K50" s="16"/>
+      <c r="K50" s="23"/>
       <c r="L50" s="20"/>
       <c r="M50" s="20"/>
     </row>
-    <row r="51" spans="1:13" ht="324" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="372" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -30452,7 +30768,7 @@
     <row r="52" spans="1:13" ht="409.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
-      <c r="C52" s="24"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="21"/>
@@ -30464,14 +30780,50 @@
       <c r="L52" s="20"/>
       <c r="M52" s="20"/>
     </row>
-    <row r="53" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K53" s="25"/>
-    </row>
-    <row r="54" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K54" s="25"/>
-    </row>
-    <row r="55" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K55" s="25"/>
+    <row r="53" spans="1:13" ht="409.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+    </row>
+    <row r="54" spans="1:13" ht="324" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+    </row>
+    <row r="55" spans="1:13" ht="409.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
     </row>
     <row r="56" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K56" s="25"/>
@@ -33199,6 +33551,15 @@
     </row>
     <row r="964" spans="11:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K964" s="25"/>
+    </row>
+    <row r="965" spans="11:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K965" s="25"/>
+    </row>
+    <row r="966" spans="11:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K966" s="25"/>
+    </row>
+    <row r="967" spans="11:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K967" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
